--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1102740.074622998</v>
+        <v>1100361.150417994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12935012.42822706</v>
+        <v>12935012.42822707</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>270.3362166071153</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>218.9514462040418</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>94.57983363107927</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>136.5965239524436</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>87.98953895337199</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699466</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>170.1499121756178</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.8748435506841</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>315.9968882787534</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.0880274467719</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.31750906705316</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.3329712051946</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272847</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-4.147674796210292e-12</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>109.9946371007699</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>29.376423828597</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>98.49397183789978</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.061562850664663</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>111.636971701572</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465679</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>66.97166785419864</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>28.68281686619833</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365888</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96788793061663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>20.92847288553108</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520926</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>144.9604756260739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E34" t="n">
-        <v>35.23631477519741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.1185786361442</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.32649042089889</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016427</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>80.10107535865933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.0270735093611</v>
+        <v>181.0262860016485</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105012</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.98898794535445</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2249.271807195286</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.314047502338</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259408</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259408</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4443,16 +4443,16 @@
         <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.14770589484</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.88200728809</v>
+        <v>994.1614947556898</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898456</v>
+        <v>608.3732421574455</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002381</v>
+        <v>197.3873373678379</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>659.1879504185232</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>437.4213349880492</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>437.4213349880492</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X7" t="n">
-        <v>437.4213349880492</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445192</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881546</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.764357757271</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228021</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4948,64 +4948,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.7547762543858</v>
+        <v>273.5469479825836</v>
       </c>
       <c r="C13" t="n">
-        <v>482.7547762543858</v>
+        <v>273.5469479825836</v>
       </c>
       <c r="D13" t="n">
-        <v>482.7547762543858</v>
+        <v>123.4303085702478</v>
       </c>
       <c r="E13" t="n">
-        <v>482.7547762543858</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F13" t="n">
-        <v>335.8648287564754</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332894</v>
+        <v>1038.099241987803</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332894</v>
+        <v>749.0240153320005</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.954076332894</v>
+        <v>494.3395271261137</v>
       </c>
       <c r="W13" t="n">
-        <v>931.5369062959332</v>
+        <v>494.3395271261137</v>
       </c>
       <c r="X13" t="n">
-        <v>703.5473553979159</v>
+        <v>494.3395271261137</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.7547762543858</v>
+        <v>273.5469479825836</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.62210064342</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="C16" t="n">
-        <v>290.6859177155131</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="D16" t="n">
-        <v>290.6859177155131</v>
+        <v>204.9223570891536</v>
       </c>
       <c r="E16" t="n">
-        <v>290.6859177155131</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>290.6859177155131</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4898184303931</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q16" t="n">
         <v>1440.555541309953</v>
@@ -5461,25 +5461,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T16" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.480314654151</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V16" t="n">
-        <v>1151.480314654151</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W16" t="n">
-        <v>862.0631446171899</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="X16" t="n">
-        <v>862.0631446171899</v>
+        <v>204.9223570891494</v>
       </c>
       <c r="Y16" t="n">
-        <v>641.2705654736598</v>
+        <v>204.9223570891494</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>529.4378057033218</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>360.5016227754149</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5016227754149</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5016227754149</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5016227754149</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>193.3055234902949</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5701,22 +5701,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332894</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>931.8788496770917</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V19" t="n">
-        <v>931.8788496770917</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W19" t="n">
-        <v>931.8788496770917</v>
+        <v>896.4538830671058</v>
       </c>
       <c r="X19" t="n">
-        <v>931.8788496770917</v>
+        <v>889.3209912987577</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.0862705335616</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,37 +5753,37 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536367</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257298</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133941</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>330.0656153226283</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>720.4642094985684</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1142.473912229603</v>
+        <v>1129.437033731397</v>
       </c>
       <c r="N22" t="n">
-        <v>1559.883783889611</v>
+        <v>1546.846905391405</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100421</v>
+        <v>1916.37618610039</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673979</v>
+        <v>2209.051641673949</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400878</v>
+        <v>2328.249876400849</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400878</v>
+        <v>2261.204172653251</v>
       </c>
       <c r="S22" t="n">
-        <v>2145.395042055783</v>
+        <v>2261.204172653251</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.746892708107</v>
+        <v>2041.602707676192</v>
       </c>
       <c r="U22" t="n">
-        <v>1788.671666052305</v>
+        <v>1752.52748102039</v>
       </c>
       <c r="V22" t="n">
-        <v>1533.987177846418</v>
+        <v>1497.842992814503</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.570007809457</v>
+        <v>1208.425822777542</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.58045691144</v>
+        <v>1208.425822777542</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>987.6332436340124</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413023</v>
+        <v>878.3568999154091</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>709.4207169875023</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>559.3040775751665</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>411.3909839927734</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>264.501036494863</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>264.501036494863</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>122.7892053370611</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1899.284239455937</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1644.59975125005</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1355.182581213089</v>
+        <v>1327.139029956957</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.193030315072</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.400451171542</v>
+        <v>878.3568999154091</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876714</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597645</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474288</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474288</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495184</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495184</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495184</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.3616186032</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947398</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741511</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806533</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630031</v>
+        <v>762.5477693179112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.683526380545</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.608299724743</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.923811518856</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.506641481895</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6707,16 +6707,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900021</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776664</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179108</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>593.6115863900039</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>443.4949469776682</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>295.5818533952751</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>148.6919058973647</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>148.6919058973647</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>148.6919058973647</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7120,25 +7120,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y37" t="n">
-        <v>1166.195182806535</v>
+        <v>762.5477693179108</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856866</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577797</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>489.836033045444</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>341.9229394630509</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7372,10 +7372,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159263</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2321.683211348583</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T43" t="n">
-        <v>2102.081746371524</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U43" t="n">
-        <v>1813.006519715722</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V43" t="n">
-        <v>1558.322031509835</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W43" t="n">
-        <v>1268.904861472874</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>983.3403484614346</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9559,19 +9559,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>58.59733042519053</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>149.8731022263116</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>117.116453579516</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>66.19116708707425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43932554579929</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>110.9182890176269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>41.80074100832411</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016433</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6480925383725</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.19500848036532</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>150.4337824730896</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>52.5830194523672</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.8640922513207</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>60.33736343303444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E34" t="n">
-        <v>111.1976478713718</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.71340154579312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>26.93934589766663</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>65.31997266427192</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>56.99921249228345</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>125.5054897610447</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>72.44497470121472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957994.9369190461</v>
+        <v>957994.9369190447</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>963035.9097960528</v>
+        <v>963035.9097960531</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>963035.909796053</v>
+        <v>963035.9097960528</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>963035.9097960528</v>
+        <v>963035.9097960527</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>450359.7549792565</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="F2" t="n">
-        <v>450359.7549792565</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="G2" t="n">
-        <v>450359.7549792565</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="H2" t="n">
-        <v>462487.4349852689</v>
+        <v>462487.4349852685</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
@@ -26353,7 +26353,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.58560400942</v>
+        <v>13705.58560400896</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065171</v>
+        <v>270568.3330065172</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065176</v>
+        <v>270568.3330065175</v>
       </c>
       <c r="E6" t="n">
-        <v>23063.37513931032</v>
+        <v>22968.85660586371</v>
       </c>
       <c r="F6" t="n">
-        <v>348475.8369466659</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="G6" t="n">
-        <v>348475.8369466659</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="H6" t="n">
-        <v>347659.3195573523</v>
+        <v>347617.5300674103</v>
       </c>
       <c r="I6" t="n">
-        <v>347550.1249909668</v>
+        <v>347515.3870655313</v>
       </c>
       <c r="J6" t="n">
-        <v>130018.9225936895</v>
+        <v>129984.1846682536</v>
       </c>
       <c r="K6" t="n">
-        <v>347550.1249909669</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="L6" t="n">
-        <v>347550.1249909666</v>
+        <v>347515.3870655313</v>
       </c>
       <c r="M6" t="n">
-        <v>262495.0970554548</v>
+        <v>262460.3591300193</v>
       </c>
       <c r="N6" t="n">
-        <v>347550.1249909669</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="O6" t="n">
-        <v>347550.124990967</v>
+        <v>347515.3870655313</v>
       </c>
       <c r="P6" t="n">
-        <v>347550.1249909668</v>
+        <v>347515.3870655312</v>
       </c>
     </row>
   </sheetData>
@@ -26793,34 +26793,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>94.93667516389223</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>162.9789238682199</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>85.25214655085803</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>149.6153142531693</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>322.9321867000814</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803258</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>19.6191131558241</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>228.2411428127275</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.12032840821786</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>53.73421239971566</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351654</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.385284227404029e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30666,7 +30666,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-2.28561599164738e-12</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718153</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33913,10 +33913,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>243.7989988974562</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>306.3600965167901</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>360.0933355664745</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066238</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066236</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4053175402703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
